--- a/SpicejetExcel.xlsx
+++ b/SpicejetExcel.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYAKUMAR P\eclipse-workspace\ProjectSpiceJet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A352A4-4801-428D-A45E-CA0502E2BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4208426-480A-46C2-B3B6-F038015CE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="NegLogin" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +46,24 @@
   </si>
   <si>
     <t>vignesh122432656565857725884@gmail.com</t>
+  </si>
+  <si>
+    <t>Vignesh735556832831@</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>vig123</t>
+  </si>
+  <si>
+    <t>vigneshgmail.com</t>
+  </si>
+  <si>
+    <t>Vignesh@gmail.</t>
   </si>
 </sst>
 </file>
@@ -89,9 +108,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC0D8B-3B5C-453A-959F-07456DE395FD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -484,4 +511,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA49AF8-C2F3-4412-AFDC-69CB0ADC718D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B5094A88-8144-4B78-BF3D-A6FF95376AC7}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A01394C3-16DC-481D-9100-8D36F8F110EA}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{19E717F8-FA4A-4A77-84BE-7B4D47266DE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpicejetExcel.xlsx
+++ b/SpicejetExcel.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYAKUMAR P\eclipse-workspace\ProjectSpiceJet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4208426-480A-46C2-B3B6-F038015CE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29148B0A-B07F-479A-A9E1-B9A48178A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="NegLogin" sheetId="4" r:id="rId3"/>
+    <sheet name="Negsigup" sheetId="5" r:id="rId4"/>
+    <sheet name="psignup" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -64,6 +66,72 @@
   </si>
   <si>
     <t>Vignesh@gmail.</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>conpass</t>
+  </si>
+  <si>
+    <t>vignesh</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>vignesh@gmail</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vig@221</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>Vig@.com</t>
+  </si>
+  <si>
+    <t>22-1998</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>22-06-1998</t>
+  </si>
+  <si>
+    <t>8778</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>989789754</t>
+  </si>
+  <si>
+    <t>Vignesh</t>
+  </si>
+  <si>
+    <t>vignesh@gmail.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>06/22/1998</t>
   </si>
 </sst>
 </file>
@@ -517,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA49AF8-C2F3-4412-AFDC-69CB0ADC718D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -563,4 +631,193 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E897A94-4CEB-4BDE-8265-9AD0C9EE8F68}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="vignesh@gmail" xr:uid="{7D5B55E0-BC4D-4114-9863-47E682C6EDFB}"/>
+    <hyperlink ref="D3" r:id="rId2" display="vignesh@.com" xr:uid="{CAEB0AAB-5C2E-4383-A422-7C6F8FAA5819}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A3154B84-A9CD-423C-958D-3AE36BDD9416}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{4A494D90-D3BF-412D-BD8B-48F7590DDAF4}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{135FF1B3-0B5A-47B0-B9C4-7A3A7EC5796F}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{72E5B0DA-B749-410E-8310-807692949B79}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCA11FE-B3EB-4BA3-9D01-62495BEFE141}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{18573493-5B99-432C-8E13-F3A5CC6E7185}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{F312F5E6-62B7-4B32-B672-CE51AE86BDA1}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{047FBABF-69E7-44E6-B527-13765EC5712A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>